--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406808.4439759394</v>
+        <v>488530.8701657226</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14793534.46552418</v>
+        <v>14803319.36208674</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6050988.346027242</v>
+        <v>6041269.909777042</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.848256208035306</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.848256208035306</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>43.85944218949135</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.70400066026085</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.91528667358037</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>81.61928733384123</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>92.6649492891022</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="X8" t="n">
-        <v>83.13719072031597</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.396679373398329</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.396679373398329</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>253.2072517179845</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.8405921356977</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V11" t="n">
-        <v>253.2072517179845</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>253.2072517179845</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.0249473132007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.889197745894847</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.5112850967134</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>26.27263724496056</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>25.71650726650484</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112.1537208505825</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>116.8405921356977</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>49.4396230756523</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G14" t="n">
-        <v>253.2072517179845</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.80363837989017</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5962336622959</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3447229980954</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>68.60038183882739</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.1537208505826</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>225.0811223986714</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>124.0223915514711</v>
       </c>
       <c r="E17" t="n">
-        <v>253.2072517179845</v>
+        <v>315.128434197948</v>
       </c>
       <c r="F17" t="n">
-        <v>253.2072517179845</v>
+        <v>315.128434197948</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56.15009797178183</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0421735954127</v>
+        <v>102.6428844773416</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>34.50888927010847</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.1537208505826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>315.128434197948</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>315.128434197948</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I20" t="n">
-        <v>116.7083663906775</v>
+        <v>19.46824570263109</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.80363837989017</v>
+        <v>49.3430228091953</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5962336622959</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.1801356837924</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>253.2072517179845</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>99.66720504223716</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.855767372567</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>48.96612838248409</v>
+        <v>199.821077252054</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>16.32050678918588</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>112.1537208505827</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>274.5296966789727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>151.4926660333557</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>163.6298574568143</v>
+        <v>7.716459122343012</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>9.854692234071626</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>266.4745132254744</v>
       </c>
       <c r="G26" t="n">
-        <v>353.1004271835594</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.60771728117095</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>94.27303422046077</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>37.08813929964472</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.37977552228273</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>96.39780358073315</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>1.261693703328089</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>117.9966337374926</v>
       </c>
       <c r="E30" t="n">
-        <v>82.87849588212964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>125.0721477169158</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>356.2055515569073</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>224.79709938685</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3116,19 +3116,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8205739680685</v>
+        <v>57.19121247735568</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>214.8917062614308</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4526267879213</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>36.06688573135837</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>118.6751695477418</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>122.1691820781285</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1391017539420991</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.2959383279805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>82.26649537344306</v>
       </c>
       <c r="U38" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>42.64134888513264</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2061197893022819</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
         <v>192.7632183107638</v>
@@ -3641,13 +3641,13 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>14.69647230369978</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>225.3922428476565</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>261.2128327267951</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>27.60335576782179</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
-        <v>149.4101061218962</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>158.4701652522839</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>128.1934139879461</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>1.205964635193347</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>130.5725017995096</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>114.447196941084</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.013305673653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>154.8775612504264</v>
       </c>
       <c r="D2" t="n">
+        <v>154.8775612504264</v>
+      </c>
+      <c r="E2" t="n">
+        <v>154.8775612504264</v>
+      </c>
+      <c r="F2" t="n">
         <v>104.5795743543409</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>54.28158745825545</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.98360056216997</v>
       </c>
       <c r="H2" t="n">
         <v>3.98360056216997</v>
@@ -4369,13 +4369,13 @@
         <v>156.7444867130883</v>
       </c>
       <c r="W2" t="n">
-        <v>156.7444867130883</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="X2" t="n">
-        <v>156.7444867130883</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.7444867130883</v>
+        <v>154.8775612504264</v>
       </c>
     </row>
     <row r="3">
@@ -4433,25 +4433,25 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="S3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="T3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="U3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="V3" t="n">
         <v>154.8775612504264</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>104.5795743543409</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>54.28158745825545</v>
-      </c>
-      <c r="U3" t="n">
-        <v>54.28158745825545</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.98360056216997</v>
       </c>
       <c r="Y3" t="n">
         <v>3.98360056216997</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="C4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="D4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="E4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="F4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="G4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="H4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="I4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="J4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="K4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="L4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="M4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="N4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="O4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.98360056216997</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         <v>89.85692052276578</v>
       </c>
       <c r="D5" t="n">
-        <v>89.85692052276578</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="E5" t="n">
-        <v>7.413195943128176</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="F5" t="n">
-        <v>7.413195943128176</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="G5" t="n">
-        <v>7.413195943128176</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="H5" t="n">
-        <v>7.413195943128176</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="I5" t="n">
-        <v>7.413195943128176</v>
+        <v>32.58015217906794</v>
       </c>
       <c r="J5" t="n">
         <v>7.413195943128176</v>
@@ -4576,7 +4576,7 @@
         <v>75.16870670940374</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N5" t="n">
         <v>258.6453063018261</v>
@@ -4600,19 +4600,19 @@
         <v>370.6597971564088</v>
       </c>
       <c r="U5" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V5" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W5" t="n">
-        <v>277.0588382785278</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X5" t="n">
-        <v>277.0588382785278</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y5" t="n">
-        <v>183.4578794006468</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.413195943128176</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="C6" t="n">
-        <v>7.413195943128176</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="D6" t="n">
-        <v>7.413195943128176</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="E6" t="n">
-        <v>7.413195943128176</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="F6" t="n">
-        <v>7.413195943128176</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="G6" t="n">
         <v>7.413195943128176</v>
@@ -4652,13 +4652,13 @@
         <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>43.08143125983008</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8197310560413</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N6" t="n">
-        <v>226.5580308522524</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O6" t="n">
         <v>317.2247932514005</v>
@@ -4667,31 +4667,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R6" t="n">
-        <v>288.2160725767712</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S6" t="n">
-        <v>194.6151136988902</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6151136988902</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="U6" t="n">
-        <v>194.6151136988902</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="V6" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="W6" t="n">
-        <v>7.413195943128176</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="X6" t="n">
-        <v>7.413195943128176</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.413195943128176</v>
+        <v>168.9702644606239</v>
       </c>
     </row>
     <row r="7">
@@ -4807,13 +4807,13 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083931</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
         <v>313.4124509320676</v>
@@ -4825,31 +4825,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S8" t="n">
-        <v>319.4361956081387</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>319.4361956081387</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U8" t="n">
-        <v>206.1910843708421</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V8" t="n">
-        <v>206.1910843708421</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W8" t="n">
-        <v>92.94597313354539</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="X8" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.969012809993897</v>
+        <v>108.7153067878048</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993897</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387164</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9276458275461</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>313.9191793512206</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953196</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996948</v>
@@ -4913,22 +4913,22 @@
         <v>356.1757398283469</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1757398283469</v>
+        <v>242.9306285910502</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1757398283469</v>
+        <v>242.9306285910502</v>
       </c>
       <c r="V9" t="n">
-        <v>242.9306285910502</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="W9" t="n">
-        <v>129.6855173537535</v>
+        <v>16.44040611645686</v>
       </c>
       <c r="X9" t="n">
         <v>16.44040611645686</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44040611645686</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="10">
@@ -4992,13 +4992,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="W10" t="n">
         <v>8.969012809993897</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.0214808626757</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38705923343241</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7896512396355</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L11" t="n">
-        <v>280.3626455731809</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>475.1227808058549</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>677.6481470208789</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O11" t="n">
-        <v>855.5518461470247</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P11" t="n">
-        <v>972.8875365446888</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1012.829006871938</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R11" t="n">
-        <v>1012.829006871938</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S11" t="n">
-        <v>1012.829006871938</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T11" t="n">
-        <v>1012.829006871938</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U11" t="n">
-        <v>1012.829006871938</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V11" t="n">
-        <v>757.0641061467012</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W11" t="n">
-        <v>757.0641061467012</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X11" t="n">
-        <v>501.2992054214643</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.0214808626757</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357.8755469956322</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="C12" t="n">
-        <v>183.4225177145052</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="D12" t="n">
-        <v>183.4225177145052</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="E12" t="n">
-        <v>24.18506270904972</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F12" t="n">
-        <v>24.18506270904972</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G12" t="n">
-        <v>24.18506270904972</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H12" t="n">
-        <v>24.18506270904972</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I12" t="n">
-        <v>24.18506270904972</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J12" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K12" t="n">
-        <v>91.83061903642654</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>234.3932882762805</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M12" t="n">
-        <v>420.1140672047613</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N12" t="n">
-        <v>625.158967437801</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5151971795242</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P12" t="n">
-        <v>903.8950833667054</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q12" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R12" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S12" t="n">
-        <v>780.7660401950211</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T12" t="n">
-        <v>780.7660401950211</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U12" t="n">
-        <v>552.6289014348524</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V12" t="n">
-        <v>526.0908840157003</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W12" t="n">
-        <v>526.0908840157003</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X12" t="n">
-        <v>526.0908840157003</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y12" t="n">
-        <v>526.0908840157003</v>
+        <v>345.2865086661436</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L13" t="n">
-        <v>47.3010787721022</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M13" t="n">
-        <v>79.07399367801985</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N13" t="n">
-        <v>117.9489455893794</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.9604940704053</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C14" t="n">
-        <v>325.9604940704053</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D14" t="n">
-        <v>325.9604940704053</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E14" t="n">
-        <v>325.9604940704053</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F14" t="n">
-        <v>276.0214808626757</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G14" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H14" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I14" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J14" t="n">
-        <v>45.38705923343218</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7896512396352</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>280.3626455731806</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>475.1227808058546</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
-        <v>677.6481470208788</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>855.5518461470248</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P14" t="n">
-        <v>972.8875365446888</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1012.829006871938</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R14" t="n">
-        <v>949.3909883063925</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S14" t="n">
-        <v>794.2432775363966</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T14" t="n">
-        <v>579.6484502648636</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U14" t="n">
-        <v>325.9604940704053</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="V14" t="n">
-        <v>325.9604940704053</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="W14" t="n">
-        <v>325.9604940704053</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="X14" t="n">
-        <v>325.9604940704053</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="Y14" t="n">
-        <v>325.9604940704053</v>
+        <v>511.8624171433436</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.1625362924974</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C15" t="n">
-        <v>272.1625362924974</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D15" t="n">
-        <v>272.1625362924974</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E15" t="n">
-        <v>272.1625362924974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F15" t="n">
-        <v>157.6729171025021</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K15" t="n">
-        <v>91.8306190364266</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
-        <v>234.3932882762807</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>420.1140672047615</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>625.1589674378013</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>790.5151971795244</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>903.8950833667058</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.7673382725097</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R15" t="n">
-        <v>929.7673382725097</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S15" t="n">
-        <v>929.7673382725097</v>
+        <v>680.8090336765652</v>
       </c>
       <c r="T15" t="n">
-        <v>929.7673382725097</v>
+        <v>491.3892486600804</v>
       </c>
       <c r="U15" t="n">
-        <v>929.7673382725097</v>
+        <v>491.3892486600804</v>
       </c>
       <c r="V15" t="n">
-        <v>694.6152300407671</v>
+        <v>491.3892486600804</v>
       </c>
       <c r="W15" t="n">
-        <v>440.3778733125654</v>
+        <v>491.3892486600804</v>
       </c>
       <c r="X15" t="n">
-        <v>440.3778733125654</v>
+        <v>491.3892486600804</v>
       </c>
       <c r="Y15" t="n">
-        <v>440.3778733125654</v>
+        <v>491.3892486600804</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L16" t="n">
-        <v>47.30107877210223</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
-        <v>79.0739936780199</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>117.9489455893795</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>133.543166855199</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>133.543166855199</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.543166855199</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>133.543166855199</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>133.543166855199</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.25658013743876</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>531.7863815879126</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="C17" t="n">
-        <v>531.7863815879126</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="D17" t="n">
-        <v>531.7863815879126</v>
+        <v>771.3759217799402</v>
       </c>
       <c r="E17" t="n">
-        <v>276.0214808626757</v>
+        <v>453.0643720850433</v>
       </c>
       <c r="F17" t="n">
-        <v>20.25658013743876</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="G17" t="n">
-        <v>20.25658013743876</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="H17" t="n">
-        <v>20.25658013743876</v>
+        <v>134.7528223901464</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J17" t="n">
-        <v>45.38705923343218</v>
+        <v>68.34610104031958</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7896512396351</v>
+        <v>183.7340411072835</v>
       </c>
       <c r="L17" t="n">
-        <v>280.3626455731804</v>
+        <v>363.784745917906</v>
       </c>
       <c r="M17" t="n">
-        <v>475.1227808058544</v>
+        <v>595.7952845205597</v>
       </c>
       <c r="N17" t="n">
-        <v>677.6481470208786</v>
+        <v>836.1738045761876</v>
       </c>
       <c r="O17" t="n">
-        <v>855.5518461470247</v>
+        <v>1049.821163484946</v>
       </c>
       <c r="P17" t="n">
-        <v>972.8875365446888</v>
+        <v>1197.663240548275</v>
       </c>
       <c r="Q17" t="n">
-        <v>1012.829006871938</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="R17" t="n">
-        <v>1012.829006871938</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="S17" t="n">
-        <v>1012.829006871938</v>
+        <v>1110.298381873987</v>
       </c>
       <c r="T17" t="n">
-        <v>1012.829006871938</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="U17" t="n">
-        <v>759.1410506774797</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="V17" t="n">
-        <v>759.1410506774797</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="W17" t="n">
-        <v>759.1410506774797</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="X17" t="n">
-        <v>759.1410506774797</v>
+        <v>896.6510647612241</v>
       </c>
       <c r="Y17" t="n">
-        <v>759.1410506774797</v>
+        <v>896.6510647612241</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>637.8979593621996</v>
+        <v>288.1274110315354</v>
       </c>
       <c r="C18" t="n">
-        <v>463.4449300810726</v>
+        <v>288.1274110315354</v>
       </c>
       <c r="D18" t="n">
-        <v>463.4449300810726</v>
+        <v>288.1274110315354</v>
       </c>
       <c r="E18" t="n">
-        <v>304.2074750756171</v>
+        <v>128.8899560260799</v>
       </c>
       <c r="F18" t="n">
-        <v>157.6729171025021</v>
+        <v>128.8899560260799</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H18" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J18" t="n">
-        <v>20.25658013743876</v>
+        <v>32.08383041579985</v>
       </c>
       <c r="K18" t="n">
-        <v>91.8306190364266</v>
+        <v>121.9866566016238</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3932882762807</v>
+        <v>289.1946422614694</v>
       </c>
       <c r="M18" t="n">
-        <v>420.1140672047615</v>
+        <v>503.675343007603</v>
       </c>
       <c r="N18" t="n">
-        <v>625.1589674378013</v>
+        <v>738.2413546109907</v>
       </c>
       <c r="O18" t="n">
-        <v>790.5151971795244</v>
+        <v>930.603633839337</v>
       </c>
       <c r="P18" t="n">
-        <v>903.8950833667058</v>
+        <v>1065.658255634913</v>
       </c>
       <c r="Q18" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="R18" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="S18" t="n">
-        <v>929.7673382725097</v>
+        <v>959.1693376440198</v>
       </c>
       <c r="T18" t="n">
-        <v>929.7673382725097</v>
+        <v>959.1693376440198</v>
       </c>
       <c r="U18" t="n">
-        <v>929.7673382725097</v>
+        <v>731.039818028232</v>
       </c>
       <c r="V18" t="n">
-        <v>694.6152300407671</v>
+        <v>495.8877097964893</v>
       </c>
       <c r="W18" t="n">
-        <v>694.6152300407671</v>
+        <v>495.8877097964893</v>
       </c>
       <c r="X18" t="n">
-        <v>694.6152300407671</v>
+        <v>495.8877097964893</v>
       </c>
       <c r="Y18" t="n">
-        <v>694.6152300407671</v>
+        <v>288.1274110315354</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25658013743876</v>
+        <v>210.184378057372</v>
       </c>
       <c r="C19" t="n">
-        <v>20.25658013743876</v>
+        <v>210.184378057372</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25658013743876</v>
+        <v>60.06773864503631</v>
       </c>
       <c r="E19" t="n">
-        <v>20.25658013743876</v>
+        <v>60.06773864503631</v>
       </c>
       <c r="F19" t="n">
-        <v>20.25658013743876</v>
+        <v>60.06773864503631</v>
       </c>
       <c r="G19" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H19" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J19" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="K19" t="n">
-        <v>20.25658013743876</v>
+        <v>34.03013544641166</v>
       </c>
       <c r="L19" t="n">
-        <v>47.30107877210223</v>
+        <v>75.2223182863961</v>
       </c>
       <c r="M19" t="n">
-        <v>79.0739936780199</v>
+        <v>121.9119825351259</v>
       </c>
       <c r="N19" t="n">
-        <v>117.9489455893795</v>
+        <v>175.3489968304997</v>
       </c>
       <c r="O19" t="n">
-        <v>133.543166855199</v>
+        <v>204.393639646052</v>
       </c>
       <c r="P19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="R19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="S19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="T19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="U19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="V19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="W19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="X19" t="n">
-        <v>133.543166855199</v>
+        <v>210.184378057372</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.25658013743876</v>
+        <v>210.184378057372</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="C20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="D20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="E20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="F20" t="n">
-        <v>138.1438189159009</v>
+        <v>678.7134328031265</v>
       </c>
       <c r="G20" t="n">
-        <v>138.1438189159009</v>
+        <v>360.4018831082295</v>
       </c>
       <c r="H20" t="n">
-        <v>138.1438189159009</v>
+        <v>44.87516938495816</v>
       </c>
       <c r="I20" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J20" t="n">
-        <v>45.38705923343218</v>
+        <v>68.34610104031981</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7896512396351</v>
+        <v>183.7340411072837</v>
       </c>
       <c r="L20" t="n">
-        <v>280.3626455731804</v>
+        <v>363.7847459179061</v>
       </c>
       <c r="M20" t="n">
-        <v>475.1227808058544</v>
+        <v>595.7952845205599</v>
       </c>
       <c r="N20" t="n">
-        <v>677.6481470208786</v>
+        <v>836.1738045761876</v>
       </c>
       <c r="O20" t="n">
-        <v>855.5518461470247</v>
+        <v>1049.821163484946</v>
       </c>
       <c r="P20" t="n">
-        <v>972.8875365446889</v>
+        <v>1197.663240548275</v>
       </c>
       <c r="Q20" t="n">
-        <v>1012.829006871938</v>
+        <v>1260.513736791792</v>
       </c>
       <c r="R20" t="n">
-        <v>949.3909883063925</v>
+        <v>1210.672299610786</v>
       </c>
       <c r="S20" t="n">
-        <v>794.2432775363966</v>
+        <v>1210.672299610786</v>
       </c>
       <c r="T20" t="n">
-        <v>647.5966758355962</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="U20" t="n">
-        <v>393.9087196411378</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="V20" t="n">
-        <v>393.9087196411378</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="W20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="X20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
       <c r="Y20" t="n">
-        <v>138.1438189159009</v>
+        <v>997.0249824980234</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>444.3179635669253</v>
+        <v>507.8351686836696</v>
       </c>
       <c r="C21" t="n">
-        <v>269.8649342857983</v>
+        <v>333.3821394025426</v>
       </c>
       <c r="D21" t="n">
-        <v>120.930524624547</v>
+        <v>184.4477297412913</v>
       </c>
       <c r="E21" t="n">
-        <v>120.930524624547</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="F21" t="n">
-        <v>120.930524624547</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="G21" t="n">
-        <v>120.930524624547</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H21" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I21" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J21" t="n">
-        <v>20.25658013743876</v>
+        <v>32.08383041579987</v>
       </c>
       <c r="K21" t="n">
-        <v>91.8306190364266</v>
+        <v>121.9866566016239</v>
       </c>
       <c r="L21" t="n">
-        <v>234.3932882762807</v>
+        <v>289.1946422614695</v>
       </c>
       <c r="M21" t="n">
-        <v>420.1140672047615</v>
+        <v>503.6753430076033</v>
       </c>
       <c r="N21" t="n">
-        <v>625.1589674378013</v>
+        <v>738.241354610991</v>
       </c>
       <c r="O21" t="n">
-        <v>790.5151971795244</v>
+        <v>930.6036338393375</v>
       </c>
       <c r="P21" t="n">
-        <v>903.8950833667058</v>
+        <v>1065.658255634914</v>
       </c>
       <c r="Q21" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="R21" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="S21" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="T21" t="n">
-        <v>929.7673382725097</v>
+        <v>1106.019497291297</v>
       </c>
       <c r="U21" t="n">
-        <v>701.6301995123411</v>
+        <v>877.8899776755093</v>
       </c>
       <c r="V21" t="n">
-        <v>652.1694637724581</v>
+        <v>676.0505057037376</v>
       </c>
       <c r="W21" t="n">
-        <v>652.1694637724581</v>
+        <v>676.0505057037376</v>
       </c>
       <c r="X21" t="n">
-        <v>444.3179635669253</v>
+        <v>676.0505057037376</v>
       </c>
       <c r="Y21" t="n">
-        <v>444.3179635669253</v>
+        <v>676.0505057037376</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="C22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="D22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="E22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="F22" t="n">
-        <v>20.25658013743876</v>
+        <v>193.6990176642552</v>
       </c>
       <c r="G22" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="H22" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="I22" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="J22" t="n">
-        <v>20.25658013743876</v>
+        <v>25.21027473583584</v>
       </c>
       <c r="K22" t="n">
-        <v>20.25658013743876</v>
+        <v>34.03013544641168</v>
       </c>
       <c r="L22" t="n">
-        <v>47.30107877210224</v>
+        <v>75.22231828639616</v>
       </c>
       <c r="M22" t="n">
-        <v>79.07399367801992</v>
+        <v>121.911982535126</v>
       </c>
       <c r="N22" t="n">
-        <v>117.9489455893796</v>
+        <v>175.3489968304999</v>
       </c>
       <c r="O22" t="n">
-        <v>133.543166855199</v>
+        <v>204.3936396460522</v>
       </c>
       <c r="P22" t="n">
-        <v>133.543166855199</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.543166855199</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="R22" t="n">
-        <v>133.543166855199</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="S22" t="n">
-        <v>133.543166855199</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="T22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="U22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="V22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="W22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="X22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.25658013743876</v>
+        <v>210.1843780573722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1186.628457381848</v>
+        <v>1077.998224970289</v>
       </c>
       <c r="C23" t="n">
-        <v>817.6659404414363</v>
+        <v>709.035708029877</v>
       </c>
       <c r="D23" t="n">
-        <v>459.4002418346858</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="E23" t="n">
-        <v>459.4002418346858</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F23" t="n">
-        <v>459.4002418346858</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M23" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O23" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567161</v>
       </c>
       <c r="V23" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.78977522359</v>
       </c>
       <c r="W23" t="n">
-        <v>1560.094215642928</v>
+        <v>1231.021119953476</v>
       </c>
       <c r="X23" t="n">
-        <v>1186.628457381848</v>
+        <v>1077.998224970289</v>
       </c>
       <c r="Y23" t="n">
-        <v>1186.628457381848</v>
+        <v>1077.998224970289</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.2327775772192</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="C24" t="n">
-        <v>326.7797482960922</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D24" t="n">
-        <v>326.7797482960922</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E24" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F24" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504519</v>
@@ -6095,25 +6095,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S24" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.516725807463</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U24" t="n">
-        <v>1406.23404150765</v>
+        <v>1424.757662155299</v>
       </c>
       <c r="V24" t="n">
-        <v>1171.081933275907</v>
+        <v>1189.605553923556</v>
       </c>
       <c r="W24" t="n">
-        <v>916.8445765477059</v>
+        <v>935.3681971953545</v>
       </c>
       <c r="X24" t="n">
-        <v>708.993076342173</v>
+        <v>727.5166969898216</v>
       </c>
       <c r="Y24" t="n">
-        <v>501.2327775772192</v>
+        <v>519.7563982248678</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809306</v>
+        <v>510.3351124607287</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809306</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018941</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V25" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W25" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36919653809306</v>
+        <v>510.3351124607287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1154.78706424196</v>
+        <v>1425.551839658726</v>
       </c>
       <c r="C26" t="n">
-        <v>785.8245473015488</v>
+        <v>1056.589322718314</v>
       </c>
       <c r="D26" t="n">
-        <v>785.8245473015488</v>
+        <v>698.323624111564</v>
       </c>
       <c r="E26" t="n">
-        <v>400.0362947033046</v>
+        <v>312.5353715133197</v>
       </c>
       <c r="F26" t="n">
-        <v>400.0362947033046</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J26" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N26" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U26" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V26" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W26" t="n">
-        <v>1914.852662567162</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X26" t="n">
-        <v>1541.386904306082</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="Y26" t="n">
-        <v>1541.386904306082</v>
+        <v>1425.551839658726</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>464.9088565162518</v>
+        <v>633.1241935363198</v>
       </c>
       <c r="C27" t="n">
-        <v>290.4558272351247</v>
+        <v>458.6711642551928</v>
       </c>
       <c r="D27" t="n">
-        <v>290.4558272351247</v>
+        <v>458.6711642551928</v>
       </c>
       <c r="E27" t="n">
-        <v>275.700557254144</v>
+        <v>458.6711642551928</v>
       </c>
       <c r="F27" t="n">
-        <v>275.700557254144</v>
+        <v>312.1366062820778</v>
       </c>
       <c r="G27" t="n">
-        <v>138.8245634692599</v>
+        <v>175.2606124971937</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581915</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504519</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.1248508126813</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="C28" t="n">
-        <v>242.1886678847744</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="D28" t="n">
-        <v>242.1886678847744</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E28" t="n">
-        <v>242.1886678847744</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1886678847744</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G28" t="n">
-        <v>74.05583847979278</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K28" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018941</v>
@@ -6408,28 +6408,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R28" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S28" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T28" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>411.1248508126813</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X28" t="n">
-        <v>411.1248508126813</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.1248508126813</v>
+        <v>230.8721770036385</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1239.348663564705</v>
+        <v>1253.757183451917</v>
       </c>
       <c r="C29" t="n">
-        <v>870.3861466242934</v>
+        <v>884.7946665115051</v>
       </c>
       <c r="D29" t="n">
-        <v>870.3861466242934</v>
+        <v>526.5289679047546</v>
       </c>
       <c r="E29" t="n">
-        <v>870.3861466242934</v>
+        <v>140.7407153065104</v>
       </c>
       <c r="F29" t="n">
-        <v>459.4002418346858</v>
+        <v>140.7407153065104</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809304</v>
+        <v>140.7407153065104</v>
       </c>
       <c r="H29" t="n">
         <v>43.36919653809304</v>
@@ -6469,16 +6469,16 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N29" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P29" t="n">
         <v>2021.630958172446</v>
@@ -6502,13 +6502,13 @@
         <v>1627.222941712997</v>
       </c>
       <c r="W29" t="n">
-        <v>1625.948503628827</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="X29" t="n">
-        <v>1625.948503628827</v>
+        <v>1253.757183451917</v>
       </c>
       <c r="Y29" t="n">
-        <v>1625.948503628827</v>
+        <v>1253.757183451917</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>438.4138720102957</v>
+        <v>633.1241935363198</v>
       </c>
       <c r="C30" t="n">
-        <v>263.9608427291687</v>
+        <v>458.6711642551928</v>
       </c>
       <c r="D30" t="n">
-        <v>263.9608427291687</v>
+        <v>339.4826453284326</v>
       </c>
       <c r="E30" t="n">
         <v>180.2451903229771</v>
@@ -6572,22 +6572,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.516725807463</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U30" t="n">
-        <v>1343.415135940727</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V30" t="n">
-        <v>1108.263027708984</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W30" t="n">
-        <v>854.0256709807825</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X30" t="n">
-        <v>646.1741707752496</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.4138720102957</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.3053794659999</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="C31" t="n">
         <v>43.36919653809304</v>
@@ -6654,19 +6654,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V31" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W31" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="X31" t="n">
-        <v>393.9538442962397</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="Y31" t="n">
-        <v>393.9538442962397</v>
+        <v>43.36919653809304</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.386904306082</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="C32" t="n">
-        <v>1172.424387365671</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="D32" t="n">
-        <v>814.1586887589201</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="E32" t="n">
-        <v>814.1586887589201</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1727839693125</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H32" t="n">
         <v>43.36919653809306</v>
@@ -6700,13 +6700,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
@@ -6733,19 +6733,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V32" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W32" t="n">
-        <v>1914.852662567162</v>
+        <v>1941.392049746218</v>
       </c>
       <c r="X32" t="n">
-        <v>1541.386904306082</v>
+        <v>1567.926291485139</v>
       </c>
       <c r="Y32" t="n">
-        <v>1541.386904306082</v>
+        <v>1177.786959509327</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.0707711116521</v>
+        <v>608.7465603847531</v>
       </c>
       <c r="C33" t="n">
-        <v>671.6177418305251</v>
+        <v>434.2935311036262</v>
       </c>
       <c r="D33" t="n">
-        <v>522.6833321692739</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="E33" t="n">
-        <v>363.4458771638183</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F33" t="n">
-        <v>216.9113191907033</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G33" t="n">
-        <v>80.03532540581918</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H33" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809306</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1734.238298972664</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U33" t="n">
-        <v>1506.136709105928</v>
+        <v>1513.747824315184</v>
       </c>
       <c r="V33" t="n">
-        <v>1270.984600874186</v>
+        <v>1278.595716083441</v>
       </c>
       <c r="W33" t="n">
-        <v>1053.922271317185</v>
+        <v>1024.35835935524</v>
       </c>
       <c r="X33" t="n">
-        <v>846.0707711116521</v>
+        <v>816.506859149707</v>
       </c>
       <c r="Y33" t="n">
-        <v>846.0707711116521</v>
+        <v>608.7465603847531</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809306</v>
@@ -6885,25 +6885,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S34" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="T34" t="n">
-        <v>380.4382088709816</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="U34" t="n">
-        <v>380.4382088709816</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V34" t="n">
-        <v>380.4382088709816</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W34" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X34" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.4382088709816</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>906.8173443327362</v>
+        <v>1156.385664683499</v>
       </c>
       <c r="C35" t="n">
-        <v>906.8173443327362</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8173443327362</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E35" t="n">
-        <v>906.8173443327362</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F35" t="n">
-        <v>495.8314395431286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G35" t="n">
-        <v>79.80039424653586</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H35" t="n">
         <v>43.36919653809306</v>
@@ -6940,16 +6940,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M35" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
         <v>1761.960612545596</v>
@@ -6970,19 +6970,19 @@
         <v>2036.325171642784</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.325171642784</v>
+        <v>1916.451263008701</v>
       </c>
       <c r="V35" t="n">
-        <v>2036.325171642784</v>
+        <v>1916.451263008701</v>
       </c>
       <c r="W35" t="n">
-        <v>1683.55651637267</v>
+        <v>1916.451263008701</v>
       </c>
       <c r="X35" t="n">
-        <v>1683.55651637267</v>
+        <v>1542.985504747621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1293.417184396858</v>
+        <v>1542.985504747621</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>672.6691552812056</v>
+        <v>619.0496057289574</v>
       </c>
       <c r="C36" t="n">
-        <v>498.2161260000786</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="D36" t="n">
-        <v>349.2817163388273</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E36" t="n">
-        <v>190.0442613333718</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F36" t="n">
-        <v>43.50970336025679</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H36" t="n">
         <v>43.36919653809306</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U36" t="n">
-        <v>1538.125457466751</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V36" t="n">
-        <v>1302.973349235008</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.735992506806</v>
+        <v>950.2131187142431</v>
       </c>
       <c r="X36" t="n">
-        <v>840.8844923012737</v>
+        <v>950.2131187142431</v>
       </c>
       <c r="Y36" t="n">
-        <v>840.8844923012737</v>
+        <v>742.4528199492893</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C37" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D37" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E37" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F37" t="n">
         <v>43.36919653809306</v>
@@ -7128,19 +7128,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V37" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y37" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1198.409052532695</v>
+        <v>1105.520778961782</v>
       </c>
       <c r="C38" t="n">
-        <v>1198.409052532695</v>
+        <v>736.5582620213706</v>
       </c>
       <c r="D38" t="n">
-        <v>840.1433539259449</v>
+        <v>736.5582620213706</v>
       </c>
       <c r="E38" t="n">
-        <v>454.3551013277006</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F38" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771186</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O38" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T38" t="n">
-        <v>1826.151173794699</v>
+        <v>2085.362356830467</v>
       </c>
       <c r="U38" t="n">
-        <v>1572.544009457208</v>
+        <v>1831.755192492976</v>
       </c>
       <c r="V38" t="n">
-        <v>1241.481122113637</v>
+        <v>1831.755192492976</v>
       </c>
       <c r="W38" t="n">
-        <v>1198.409052532695</v>
+        <v>1478.986537222862</v>
       </c>
       <c r="X38" t="n">
-        <v>1198.409052532695</v>
+        <v>1105.520778961782</v>
       </c>
       <c r="Y38" t="n">
-        <v>1198.409052532695</v>
+        <v>1105.520778961782</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>646.2653722158286</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="C39" t="n">
-        <v>471.8123429347016</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D39" t="n">
-        <v>471.8123429347016</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E39" t="n">
-        <v>312.5748879292461</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G39" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H39" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K39" t="n">
         <v>246.6448318504519</v>
@@ -7280,25 +7280,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S39" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.516725807463</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U39" t="n">
-        <v>1343.415135940727</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V39" t="n">
-        <v>1108.263027708984</v>
+        <v>1189.605553923556</v>
       </c>
       <c r="W39" t="n">
-        <v>854.0256709807825</v>
+        <v>935.3681971953545</v>
       </c>
       <c r="X39" t="n">
-        <v>854.0256709807825</v>
+        <v>727.5166969898216</v>
       </c>
       <c r="Y39" t="n">
-        <v>646.2653722158286</v>
+        <v>519.7563982248678</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="C40" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D40" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K40" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018941</v>
@@ -7365,19 +7365,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U40" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V40" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W40" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="X40" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="Y40" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809304</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1409.252249044213</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="C41" t="n">
-        <v>1040.289732103801</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="D41" t="n">
-        <v>682.0240334970506</v>
+        <v>307.2205427267749</v>
       </c>
       <c r="E41" t="n">
-        <v>454.3551013277006</v>
+        <v>307.2205427267749</v>
       </c>
       <c r="F41" t="n">
-        <v>43.36919653809305</v>
+        <v>307.2205427267749</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J41" t="n">
         <v>152.50781843019</v>
@@ -7426,37 +7426,37 @@
         <v>1417.286540135166</v>
       </c>
       <c r="O41" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q41" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R41" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V41" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W41" t="n">
-        <v>1782.718007305293</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X41" t="n">
-        <v>1409.252249044213</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y41" t="n">
-        <v>1409.252249044213</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>730.4069798939659</v>
+        <v>298.0620184747154</v>
       </c>
       <c r="C42" t="n">
-        <v>730.4069798939659</v>
+        <v>298.0620184747154</v>
       </c>
       <c r="D42" t="n">
-        <v>581.4725702327146</v>
+        <v>298.0620184747154</v>
       </c>
       <c r="E42" t="n">
-        <v>422.235115227259</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F42" t="n">
-        <v>275.700557254144</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G42" t="n">
         <v>138.8245634692599</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I42" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J42" t="n">
         <v>89.55356510562316</v>
@@ -7517,25 +7517,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.516725807463</v>
+        <v>1599.38020929195</v>
       </c>
       <c r="U42" t="n">
-        <v>1343.415135940727</v>
+        <v>1371.278619425214</v>
       </c>
       <c r="V42" t="n">
-        <v>1192.4958368277</v>
+        <v>1136.126511193472</v>
       </c>
       <c r="W42" t="n">
-        <v>938.2584800994987</v>
+        <v>881.8891544652702</v>
       </c>
       <c r="X42" t="n">
-        <v>730.4069798939659</v>
+        <v>674.0376542597373</v>
       </c>
       <c r="Y42" t="n">
-        <v>730.4069798939659</v>
+        <v>466.2773554947834</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C43" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D43" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E43" t="n">
-        <v>203.4400705302991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F43" t="n">
-        <v>203.4400705302991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K43" t="n">
         <v>92.71685897981521</v>
@@ -7596,25 +7596,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S43" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="T43" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="U43" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V43" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W43" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X43" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y43" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>459.4002418346858</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="C44" t="n">
-        <v>459.4002418346858</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D44" t="n">
-        <v>459.4002418346858</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E44" t="n">
-        <v>459.4002418346858</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F44" t="n">
-        <v>459.4002418346858</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J44" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M44" t="n">
         <v>1038.14846457873</v>
@@ -7666,34 +7666,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U44" t="n">
-        <v>2036.325171642783</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V44" t="n">
-        <v>1705.262284299213</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W44" t="n">
-        <v>1352.493629029099</v>
+        <v>1582.571629127436</v>
       </c>
       <c r="X44" t="n">
-        <v>979.0278707680188</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="Y44" t="n">
-        <v>588.8885387922071</v>
+        <v>1209.105870866357</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.6225541696373</v>
+        <v>501.2327775772192</v>
       </c>
       <c r="C45" t="n">
-        <v>571.1695248885103</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="D45" t="n">
-        <v>422.235115227259</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E45" t="n">
-        <v>422.235115227259</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F45" t="n">
-        <v>275.700557254144</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G45" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H45" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J45" t="n">
         <v>89.55356510562316</v>
@@ -7760,19 +7760,19 @@
         <v>1766.227047333487</v>
       </c>
       <c r="U45" t="n">
-        <v>1650.623818100068</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V45" t="n">
-        <v>1415.471709868326</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W45" t="n">
-        <v>1161.234353140124</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X45" t="n">
-        <v>953.3828529345913</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.6225541696373</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K46" t="n">
         <v>92.71685897981521</v>
@@ -7839,19 +7839,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V46" t="n">
-        <v>265.6048588347122</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
   </sheetData>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.8855854554453</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>332.1353630451372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>357.0810387145868</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>273.3407321982346</v>
       </c>
       <c r="I2" t="n">
         <v>148.9685811771479</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>347.3927125093777</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22673,28 +22673,28 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
-        <v>48.82053953960754</v>
+        <v>92.6799817290989</v>
       </c>
       <c r="S3" t="n">
-        <v>106.0324861546552</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
         <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0055801223006</v>
+        <v>188.9411449599339</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="4">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>297.9790409604221</v>
       </c>
       <c r="E5" t="n">
-        <v>300.3110827384206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22840,13 +22840,13 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W5" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3592641379443</v>
+        <v>69.08271559472578</v>
       </c>
       <c r="H6" t="n">
         <v>102.729632124056</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.950191078938488</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
-        <v>60.73615356033713</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U6" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>140.1356378603231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>159.0300338718174</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>283.9850106254478</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519752</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
         <v>214.717169359623</v>
@@ -23080,13 +23080,13 @@
         <v>139.079870129261</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W8" t="n">
         <v>237.1283085924893</v>
       </c>
       <c r="X8" t="n">
-        <v>286.5939099581531</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.136504276469</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23153,7 +23153,7 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -23165,10 +23165,10 @@
         <v>139.5823230359959</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>198.286016403906</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>220.6517791023747</v>
       </c>
       <c r="U10" t="n">
         <v>286.2721982989959</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>282.8976208477874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>112.065640053023</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.8705340736013</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H11" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>116.7083663906775</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.8036383798902</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>153.5962336622959</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4488789988175</v>
+        <v>96.6032889205091</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1510766325138</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V11" t="n">
-        <v>74.54500675215039</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>116.5238489604845</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.2129913428529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0421735954127</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>99.66720504223716</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>54.71734926660513</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.88204981594637</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>194.9194008930395</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>206.5279499044647</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>179.9661885107995</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74625577559813</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86152826733209</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K13" t="n">
-        <v>2.258577093130469</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,28 +23457,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.776182683435991</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.14840011113779</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R13" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2840322994568</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821565</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>265.8932495277829</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>357.4364226660591</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G14" t="n">
-        <v>159.6632823556168</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H14" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>116.7083663906775</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>31.72448939528849</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>99.66720504223716</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>54.71734926660511</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>3.889197745894819</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.88204981594636</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5112850967134</v>
+        <v>81.16986285212224</v>
       </c>
       <c r="T15" t="n">
-        <v>194.9194008930395</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U15" t="n">
-        <v>225.855767372567</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8999766261806</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86152826733208</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>2.258577093130441</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.776182683435962</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.14840011113778</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>111.1303114488741</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157.6527192648092</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>230.6606500692119</v>
       </c>
       <c r="E17" t="n">
-        <v>128.7231183542773</v>
+        <v>66.80193587431381</v>
       </c>
       <c r="F17" t="n">
-        <v>153.6687940237269</v>
+        <v>91.74761154376347</v>
       </c>
       <c r="G17" t="n">
-        <v>412.8705340736013</v>
+        <v>412.656248509425</v>
       </c>
       <c r="H17" t="n">
-        <v>314.56599862016</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I17" t="n">
-        <v>116.7083663906775</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.80363837989017</v>
+        <v>49.34302280919533</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5962336622959</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.3830856780855</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,19 +23822,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>33.28463623342705</v>
       </c>
       <c r="H18" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107013</v>
       </c>
       <c r="I18" t="n">
-        <v>54.71734926660511</v>
+        <v>50.76987056285347</v>
       </c>
       <c r="J18" t="n">
-        <v>3.889197745894819</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.88204981594636</v>
+        <v>57.76351369743574</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5112850967134</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9194008930395</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
-        <v>225.855767372567</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8999766261806</v>
+        <v>132.2949662290267</v>
       </c>
       <c r="H19" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J19" t="n">
-        <v>49.86152826733208</v>
+        <v>43.06576458521427</v>
       </c>
       <c r="K19" t="n">
-        <v>2.258577093130441</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.776182683435962</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.14840011113778</v>
+        <v>52.09956646371754</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2840322994568</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.4309325015121</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>91.74761154376347</v>
       </c>
       <c r="G20" t="n">
-        <v>412.8705340736013</v>
+        <v>97.52781431147702</v>
       </c>
       <c r="H20" t="n">
-        <v>314.56599862016</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>88.97887647513633</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T20" t="n">
-        <v>67.26874331502518</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>96.03371699942846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,22 +24056,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.55989955107013</v>
       </c>
       <c r="I21" t="n">
-        <v>54.71734926660511</v>
+        <v>50.76987056285346</v>
       </c>
       <c r="J21" t="n">
-        <v>3.889197745894819</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.88204981594636</v>
+        <v>57.76351369743573</v>
       </c>
       <c r="S21" t="n">
-        <v>147.5112850967134</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T21" t="n">
-        <v>194.9194008930395</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>183.8344587669412</v>
+        <v>32.97950989737132</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24138,22 +24138,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>129.1005412337454</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8999766261806</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J22" t="n">
-        <v>49.86152826733208</v>
+        <v>43.06576458521425</v>
       </c>
       <c r="K22" t="n">
-        <v>2.258577093130441</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.776182683435962</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.14840011113778</v>
+        <v>52.09956646371752</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S22" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T22" t="n">
-        <v>111.1303114488741</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>78.16360657708299</v>
@@ -24262,16 +24262,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>74.71127203844031</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>218.2384346451133</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
         <v>94.50081326185514</v>
@@ -24335,13 +24335,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>62.19071651125424</v>
+        <v>218.1041148457255</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,19 +24420,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>100.6071071548267</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>208.7299611180232</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>140.401532516237</v>
       </c>
       <c r="G26" t="n">
-        <v>58.77030766006737</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
@@ -24499,19 +24499,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>143.03736317423</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.2277790413943706</v>
       </c>
       <c r="I27" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>111.5273337185676</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
-        <v>118.1600358389625</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>109.1541654470835</v>
@@ -24648,7 +24648,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S28" t="n">
         <v>197.1876907596159</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>207.9290011754499</v>
       </c>
       <c r="I29" t="n">
         <v>78.16360657708299</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>347.9792750140849</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24764,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>29.44843182714617</v>
       </c>
       <c r="E30" t="n">
-        <v>74.7665845732713</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24812,7 +24812,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24894,16 +24894,16 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>100.6375076721213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>55.66518328671953</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>78.16360657708299</v>
@@ -24973,19 +24973,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>124.443869330563</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,19 +25004,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>168.6293614907129</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>36.80327689948882</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25125,10 +25125,10 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S34" t="n">
-        <v>197.1876907596159</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="T34" t="n">
-        <v>82.91519194638136</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
         <v>286.2350578157167</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>268.2599190248247</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
         <v>78.16360657708299</v>
@@ -25210,19 +25210,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>132.395923146374</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>44.36400157173883</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3681320930932</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904885</v>
@@ -25283,25 +25283,25 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4515011109318</v>
@@ -25368,19 +25368,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.28871502411428</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>78.16360657708299</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>125.8057624961608</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>306.5996198322804</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>144.8630926040816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>218.1041148457255</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4515011109318</v>
@@ -25605,19 +25605,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9041880423266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>156.5381272246053</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>150.6579021168317</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>165.159862542942</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>83.39048102752909</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>7.981335858647839</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25836,7 +25836,7 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596159</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>254.5404276755345</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>348.0350040822196</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>35.9606818503577</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904885</v>
@@ -26000,7 +26000,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>111.3733770269845</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.50969266293802</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>302456.9872241829</v>
+        <v>302456.9872241828</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>348932.9768560525</v>
+        <v>348932.9768560526</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>365065.7310253116</v>
+        <v>365065.7310253117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468224.6527275803</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468224.6527275802</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>468224.6527275803</v>
+        <v>509023.0632255162</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>468224.6527275803</v>
+        <v>509023.0632255164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526518</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526518</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
   </sheetData>
@@ -26322,19 +26322,19 @@
         <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>174436.6353298828</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="F2" t="n">
-        <v>174436.6353298828</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="G2" t="n">
-        <v>174436.6353298828</v>
+        <v>189636.0431624471</v>
       </c>
       <c r="H2" t="n">
-        <v>174436.6353298828</v>
+        <v>189636.0431624472</v>
       </c>
       <c r="I2" t="n">
-        <v>245340.6184784387</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="J2" t="n">
         <v>245340.6184784386</v>
@@ -26343,19 +26343,19 @@
         <v>245340.6184784386</v>
       </c>
       <c r="L2" t="n">
+        <v>245340.6184784387</v>
+      </c>
+      <c r="M2" t="n">
+        <v>245340.6184784387</v>
+      </c>
+      <c r="N2" t="n">
         <v>245340.6184784386</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>245340.6184784387</v>
+      </c>
+      <c r="P2" t="n">
         <v>245340.6184784386</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245340.6184784387</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245340.6184784386</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245340.6184784387</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>145682.2540662463</v>
+        <v>80646.21400928611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120376.4632767654</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264035.3461263062</v>
+        <v>207445.0213781846</v>
       </c>
       <c r="J3" t="n">
         <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.35130008059</v>
+        <v>11033.35130008064</v>
       </c>
       <c r="L3" t="n">
         <v>4922.04058314896</v>
       </c>
       <c r="M3" t="n">
-        <v>35161.33660335713</v>
+        <v>18793.20307042411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30707.75274100837</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063671</v>
       </c>
       <c r="D4" t="n">
         <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2589384760899</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="F4" t="n">
-        <v>182.25893847609</v>
+        <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>182.25893847609</v>
+        <v>225.1452198420038</v>
       </c>
       <c r="H4" t="n">
-        <v>182.25893847609</v>
+        <v>225.1452198420039</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26478,22 +26478,22 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>28584.23211703038</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="F5" t="n">
-        <v>28584.23211703038</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>28584.23211703038</v>
+        <v>33511.05705494966</v>
       </c>
       <c r="H5" t="n">
-        <v>28584.23211703039</v>
+        <v>33511.05705494966</v>
       </c>
       <c r="I5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="J5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="K5" t="n">
         <v>51571.48185587222</v>
@@ -26505,7 +26505,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="O5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346359.9606441642</v>
+        <v>-333223.9970673505</v>
       </c>
       <c r="C6" t="n">
-        <v>-2145.981629436697</v>
+        <v>10169.81742446173</v>
       </c>
       <c r="D6" t="n">
-        <v>49826.61804400958</v>
+        <v>61857.72143609752</v>
       </c>
       <c r="E6" t="n">
-        <v>-11357.278494799</v>
+        <v>52946.04158300109</v>
       </c>
       <c r="F6" t="n">
-        <v>134324.9755714473</v>
+        <v>133592.2555922871</v>
       </c>
       <c r="G6" t="n">
-        <v>134324.9755714473</v>
+        <v>34468.85762392649</v>
       </c>
       <c r="H6" t="n">
-        <v>134324.9755714472</v>
+        <v>154845.3209006919</v>
       </c>
       <c r="I6" t="n">
-        <v>-78263.91154514955</v>
+        <v>-14821.54469248142</v>
       </c>
       <c r="J6" t="n">
-        <v>172742.8697625516</v>
+        <v>179594.9118670982</v>
       </c>
       <c r="K6" t="n">
-        <v>174738.083281076</v>
+        <v>181590.1253856226</v>
       </c>
       <c r="L6" t="n">
-        <v>180849.3939980076</v>
+        <v>187701.4361025543</v>
       </c>
       <c r="M6" t="n">
-        <v>150610.0979777994</v>
+        <v>173830.2736152792</v>
       </c>
       <c r="N6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857032</v>
       </c>
       <c r="O6" t="n">
-        <v>185771.4345811565</v>
+        <v>161915.7239446949</v>
       </c>
       <c r="P6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857032</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>605.0106060815103</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="F3" t="n">
-        <v>605.0106060815104</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0106060815104</v>
+        <v>658.3141401703862</v>
       </c>
       <c r="H3" t="n">
-        <v>605.0106060815104</v>
+        <v>658.3141401703863</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26798,22 +26798,22 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>253.2072517179845</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F4" t="n">
-        <v>253.2072517179845</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G4" t="n">
-        <v>253.2072517179845</v>
+        <v>315.128434197948</v>
       </c>
       <c r="H4" t="n">
-        <v>253.2072517179845</v>
+        <v>315.128434197948</v>
       </c>
       <c r="I4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="K4" t="n">
         <v>542.114956726163</v>
@@ -26825,13 +26825,13 @@
         <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
+        <v>542.114956726163</v>
+      </c>
+      <c r="O4" t="n">
         <v>542.1149567261632</v>
       </c>
-      <c r="O4" t="n">
-        <v>542.1149567261631</v>
-      </c>
       <c r="P4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>128.8948548830081</v>
+        <v>72.35418971440248</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>109.8441992574816</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248.7000584561737</v>
+        <v>195.3965243672978</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0945915930608</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127.602847031628</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>288.9077050081787</v>
+        <v>226.986522528215</v>
       </c>
       <c r="J4" t="n">
         <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197734</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
         <v>19.44771083582174</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930608</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.6028470316282</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930608</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.602847031628</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31372,7 +31372,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>174.5829003017953</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M6" t="n">
         <v>234.7989832111205</v>
@@ -31381,7 +31381,7 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>234.1788327264121</v>
+        <v>195.0536364676412</v>
       </c>
       <c r="P6" t="n">
         <v>187.9491588335306</v>
@@ -31606,7 +31606,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31618,10 +31618,10 @@
         <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>216.9032093374738</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.432203441533708</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>24.90880349560709</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I11" t="n">
-        <v>93.76752317972837</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J11" t="n">
-        <v>206.4302268458717</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K11" t="n">
-        <v>309.3853985259937</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>383.8199445998309</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>427.073642553206</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>433.9841405814637</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O11" t="n">
-        <v>409.7989176097129</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7538951468494</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.6506093969234</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R11" t="n">
-        <v>152.7818994342419</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S11" t="n">
-        <v>55.42383592394943</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>10.64697056531381</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301343567797966</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>12.5682391942593</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
-        <v>44.80503073339487</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J12" t="n">
-        <v>122.9484289207718</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>210.1384479632355</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
-        <v>282.5570759817469</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M12" t="n">
-        <v>329.7307803144231</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4577729247876</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O12" t="n">
-        <v>309.6227391330537</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P12" t="n">
-        <v>248.4995449771396</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.1153648999649</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>80.79745414801758</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S12" t="n">
-        <v>24.17188600712448</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T12" t="n">
-        <v>5.245327801782149</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08561470840776093</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.091002732278133</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H13" t="n">
-        <v>9.70000611061832</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I13" t="n">
-        <v>32.8094276216006</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>77.13389317206402</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K13" t="n">
-        <v>126.7546810774049</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L13" t="n">
-        <v>162.2023516697872</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M13" t="n">
-        <v>171.0196373879259</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9531726585257</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
-        <v>154.2082771041857</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9518213657116</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.35660151830805</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R13" t="n">
-        <v>49.05545012588769</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S13" t="n">
-        <v>19.01320216161074</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
-        <v>4.66155712882475</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0595092399424437</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.432203441533709</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>24.9088034956071</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>93.76752317972839</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>206.4302268458718</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>309.3853985259937</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>383.819944599831</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>427.0736425532061</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>433.9841405814638</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>409.7989176097129</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>349.7538951468495</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.6506093969235</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>152.781899434242</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>55.42383592394944</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>10.64697056531381</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.301343567797966</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>12.5682391942593</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>44.80503073339489</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
-        <v>122.9484289207719</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>210.1384479632356</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>282.5570759817469</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>329.7307803144232</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4577729247877</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
-        <v>309.6227391330538</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>248.4995449771397</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.1153648999649</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>80.79745414801759</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>24.17188600712448</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>5.24532780178215</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08561470840776095</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.091002732278133</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>9.700006110618322</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>32.80942762160061</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>77.13389317206403</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
-        <v>126.7546810774049</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L16" t="n">
-        <v>162.2023516697872</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>171.0196373879259</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9531726585258</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>154.2082771041857</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9518213657117</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.35660151830807</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>49.0554501258877</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01320216161074</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.661557128824751</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05950923994244371</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.432203441533709</v>
+        <v>2.646489005710093</v>
       </c>
       <c r="H17" t="n">
-        <v>24.9088034956071</v>
+        <v>27.1033555297285</v>
       </c>
       <c r="I17" t="n">
-        <v>93.76752317972839</v>
+        <v>102.0287673926385</v>
       </c>
       <c r="J17" t="n">
-        <v>206.4302268458718</v>
+        <v>224.6174462483872</v>
       </c>
       <c r="K17" t="n">
-        <v>309.3853985259937</v>
+        <v>336.6433258600955</v>
       </c>
       <c r="L17" t="n">
-        <v>383.819944599831</v>
+        <v>417.6358137685959</v>
       </c>
       <c r="M17" t="n">
-        <v>427.0736425532061</v>
+        <v>464.7003126238927</v>
       </c>
       <c r="N17" t="n">
-        <v>433.9841405814638</v>
+        <v>472.2196495113666</v>
       </c>
       <c r="O17" t="n">
-        <v>409.7989176097129</v>
+        <v>445.9036244608368</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7538951468495</v>
+        <v>380.5684271323688</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6506093969235</v>
+        <v>285.791039615376</v>
       </c>
       <c r="R17" t="n">
-        <v>152.781899434242</v>
+        <v>166.2425150049368</v>
       </c>
       <c r="S17" t="n">
-        <v>55.42383592394944</v>
+        <v>60.30686821761881</v>
       </c>
       <c r="T17" t="n">
-        <v>10.64697056531381</v>
+        <v>11.58500562249594</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.2117191204568074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301343567797966</v>
+        <v>1.415996452441963</v>
       </c>
       <c r="H18" t="n">
-        <v>12.5682391942593</v>
+        <v>13.67554468542633</v>
       </c>
       <c r="I18" t="n">
-        <v>44.80503073339489</v>
+        <v>48.75250943714653</v>
       </c>
       <c r="J18" t="n">
-        <v>122.9484289207719</v>
+        <v>133.7806122019839</v>
       </c>
       <c r="K18" t="n">
-        <v>210.1384479632356</v>
+        <v>228.6523745155954</v>
       </c>
       <c r="L18" t="n">
-        <v>282.5570759817469</v>
+        <v>307.4513349918394</v>
       </c>
       <c r="M18" t="n">
-        <v>329.7307803144232</v>
+        <v>358.7812063928604</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4577729247877</v>
+        <v>368.2770773392805</v>
       </c>
       <c r="O18" t="n">
-        <v>309.6227391330538</v>
+        <v>336.9015769983296</v>
       </c>
       <c r="P18" t="n">
-        <v>248.4995449771397</v>
+        <v>270.3932173088517</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.1153648999649</v>
+        <v>180.7507050520653</v>
       </c>
       <c r="R18" t="n">
-        <v>80.79745414801759</v>
+        <v>87.91599026652821</v>
       </c>
       <c r="S18" t="n">
-        <v>24.17188600712448</v>
+        <v>26.30151305303381</v>
       </c>
       <c r="T18" t="n">
-        <v>5.24532780178215</v>
+        <v>5.70745938506212</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08561470840776095</v>
+        <v>0.09315766134486601</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091002732278133</v>
+        <v>1.187123859323647</v>
       </c>
       <c r="H19" t="n">
-        <v>9.700006110618322</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I19" t="n">
-        <v>32.80942762160061</v>
+        <v>35.70005206038751</v>
       </c>
       <c r="J19" t="n">
-        <v>77.13389317206403</v>
+        <v>83.92965685418184</v>
       </c>
       <c r="K19" t="n">
-        <v>126.7546810774049</v>
+        <v>137.9222083832382</v>
       </c>
       <c r="L19" t="n">
-        <v>162.2023516697872</v>
+        <v>176.4929417761721</v>
       </c>
       <c r="M19" t="n">
-        <v>171.0196373879259</v>
+        <v>186.087060966524</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9531726585258</v>
+        <v>181.6623265817724</v>
       </c>
       <c r="O19" t="n">
-        <v>154.2082771041857</v>
+        <v>167.7945614978552</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9518213657117</v>
+        <v>143.5772347676527</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.35660151830807</v>
+        <v>99.40543516572831</v>
       </c>
       <c r="R19" t="n">
-        <v>49.0554501258877</v>
+        <v>53.37740552922507</v>
       </c>
       <c r="S19" t="n">
-        <v>19.01320216161074</v>
+        <v>20.68833125748573</v>
       </c>
       <c r="T19" t="n">
-        <v>4.661557128824751</v>
+        <v>5.072256489837399</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05950923994244371</v>
+        <v>0.06475221050856264</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.432203441533709</v>
+        <v>2.646489005710094</v>
       </c>
       <c r="H20" t="n">
-        <v>24.9088034956071</v>
+        <v>27.1033555297285</v>
       </c>
       <c r="I20" t="n">
-        <v>93.76752317972839</v>
+        <v>102.0287673926385</v>
       </c>
       <c r="J20" t="n">
-        <v>206.4302268458718</v>
+        <v>224.6174462483873</v>
       </c>
       <c r="K20" t="n">
-        <v>309.3853985259937</v>
+        <v>336.6433258600956</v>
       </c>
       <c r="L20" t="n">
-        <v>383.819944599831</v>
+        <v>417.6358137685959</v>
       </c>
       <c r="M20" t="n">
-        <v>427.0736425532061</v>
+        <v>464.7003126238928</v>
       </c>
       <c r="N20" t="n">
-        <v>433.9841405814638</v>
+        <v>472.2196495113666</v>
       </c>
       <c r="O20" t="n">
-        <v>409.7989176097129</v>
+        <v>445.9036244608369</v>
       </c>
       <c r="P20" t="n">
-        <v>349.7538951468495</v>
+        <v>380.5684271323689</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.6506093969235</v>
+        <v>285.7910396153761</v>
       </c>
       <c r="R20" t="n">
-        <v>152.781899434242</v>
+        <v>166.2425150049368</v>
       </c>
       <c r="S20" t="n">
-        <v>55.42383592394944</v>
+        <v>60.30686821761882</v>
       </c>
       <c r="T20" t="n">
-        <v>10.64697056531381</v>
+        <v>11.58500562249594</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.2117191204568074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.301343567797966</v>
+        <v>1.415996452441963</v>
       </c>
       <c r="H21" t="n">
-        <v>12.5682391942593</v>
+        <v>13.67554468542633</v>
       </c>
       <c r="I21" t="n">
-        <v>44.80503073339489</v>
+        <v>48.75250943714654</v>
       </c>
       <c r="J21" t="n">
-        <v>122.9484289207719</v>
+        <v>133.7806122019839</v>
       </c>
       <c r="K21" t="n">
-        <v>210.1384479632356</v>
+        <v>228.6523745155954</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5570759817469</v>
+        <v>307.4513349918394</v>
       </c>
       <c r="M21" t="n">
-        <v>329.7307803144232</v>
+        <v>358.7812063928605</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4577729247877</v>
+        <v>368.2770773392805</v>
       </c>
       <c r="O21" t="n">
-        <v>309.6227391330538</v>
+        <v>336.9015769983297</v>
       </c>
       <c r="P21" t="n">
-        <v>248.4995449771397</v>
+        <v>270.3932173088517</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.1153648999649</v>
+        <v>180.7507050520653</v>
       </c>
       <c r="R21" t="n">
-        <v>80.79745414801759</v>
+        <v>87.91599026652823</v>
       </c>
       <c r="S21" t="n">
-        <v>24.17188600712448</v>
+        <v>26.30151305303381</v>
       </c>
       <c r="T21" t="n">
-        <v>5.24532780178215</v>
+        <v>5.707459385062121</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08561470840776095</v>
+        <v>0.09315766134486603</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.091002732278133</v>
+        <v>1.187123859323647</v>
       </c>
       <c r="H22" t="n">
-        <v>9.700006110618322</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I22" t="n">
-        <v>32.80942762160061</v>
+        <v>35.70005206038751</v>
       </c>
       <c r="J22" t="n">
-        <v>77.13389317206403</v>
+        <v>83.92965685418186</v>
       </c>
       <c r="K22" t="n">
-        <v>126.7546810774049</v>
+        <v>137.9222083832383</v>
       </c>
       <c r="L22" t="n">
-        <v>162.2023516697872</v>
+        <v>176.4929417761721</v>
       </c>
       <c r="M22" t="n">
-        <v>171.0196373879259</v>
+        <v>186.0870609665241</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9531726585258</v>
+        <v>181.6623265817724</v>
       </c>
       <c r="O22" t="n">
-        <v>154.2082771041857</v>
+        <v>167.7945614978552</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9518213657117</v>
+        <v>143.5772347676527</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.35660151830807</v>
+        <v>99.40543516572832</v>
       </c>
       <c r="R22" t="n">
-        <v>49.0554501258877</v>
+        <v>53.37740552922507</v>
       </c>
       <c r="S22" t="n">
-        <v>19.01320216161074</v>
+        <v>20.68833125748574</v>
       </c>
       <c r="T22" t="n">
-        <v>4.661557128824751</v>
+        <v>5.0722564898374</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05950923994244371</v>
+        <v>0.06475221050856265</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>291.2869367409257</v>
       </c>
       <c r="K44" t="n">
-        <v>436.563609825871</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L44" t="n">
         <v>541.5957615840426</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>36.02852052192112</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M6" t="n">
         <v>92.6649492891022</v>
@@ -35029,7 +35029,7 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>91.5825882819677</v>
+        <v>52.45739202319677</v>
       </c>
       <c r="P6" t="n">
         <v>53.97475141920032</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35266,10 +35266,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>74.30696489302935</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.38432231918546</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K11" t="n">
-        <v>89.2955474810131</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L11" t="n">
-        <v>148.0535296298437</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M11" t="n">
-        <v>196.7274093259333</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5710769848728</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O11" t="n">
-        <v>179.7007061880261</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P11" t="n">
-        <v>118.5208993915799</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.34491952247393</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.29700898887654</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L12" t="n">
-        <v>144.0026962018727</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M12" t="n">
-        <v>187.5967463924048</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1160608414543</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>167.0264946886093</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5251375628094</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.13359081394339</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.31767538854893</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M13" t="n">
-        <v>32.09385344032086</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N13" t="n">
-        <v>39.26762819329252</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O13" t="n">
-        <v>15.75173865234288</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.38432231918549</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>89.29554748101316</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>148.0535296298438</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>196.7274093259334</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>204.5710769848729</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>179.7007061880262</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>118.5208993915799</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.34491952247399</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>72.2970089888766</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>144.0026962018728</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>187.5967463924048</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1160608414544</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>167.0264946886093</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5251375628094</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.13359081394341</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.31767538854896</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>32.09385344032088</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>39.26762819329258</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>15.75173865234291</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.38432231918549</v>
+        <v>43.57154172170092</v>
       </c>
       <c r="K17" t="n">
-        <v>89.29554748101316</v>
+        <v>116.553474815115</v>
       </c>
       <c r="L17" t="n">
-        <v>148.0535296298438</v>
+        <v>181.8693987986086</v>
       </c>
       <c r="M17" t="n">
-        <v>196.7274093259334</v>
+        <v>234.35407939662</v>
       </c>
       <c r="N17" t="n">
-        <v>204.5710769848729</v>
+        <v>242.8065859147757</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7007061880262</v>
+        <v>215.8054130391501</v>
       </c>
       <c r="P17" t="n">
-        <v>118.5208993915799</v>
+        <v>149.3354313770993</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.34491952247399</v>
+        <v>63.48534974092652</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.942985535317177</v>
       </c>
       <c r="K18" t="n">
-        <v>72.2970089888766</v>
+        <v>90.81093554123638</v>
       </c>
       <c r="L18" t="n">
-        <v>144.0026962018728</v>
+        <v>168.8969552119652</v>
       </c>
       <c r="M18" t="n">
-        <v>187.5967463924048</v>
+        <v>216.6471724708421</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1160608414544</v>
+        <v>236.9353652559472</v>
       </c>
       <c r="O18" t="n">
-        <v>167.0264946886093</v>
+        <v>194.3053325538852</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5251375628094</v>
+        <v>136.4188098945214</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.13359081394341</v>
+        <v>40.76893096604377</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.908950212702848</v>
       </c>
       <c r="L19" t="n">
-        <v>27.31767538854896</v>
+        <v>41.60826549493379</v>
       </c>
       <c r="M19" t="n">
-        <v>32.09385344032088</v>
+        <v>47.16127701891898</v>
       </c>
       <c r="N19" t="n">
-        <v>39.26762819329258</v>
+        <v>53.97678211653923</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75173865234291</v>
+        <v>29.33802304601241</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.849230718505055</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.38432231918549</v>
+        <v>43.57154172170098</v>
       </c>
       <c r="K20" t="n">
-        <v>89.29554748101316</v>
+        <v>116.5534748151151</v>
       </c>
       <c r="L20" t="n">
-        <v>148.0535296298438</v>
+        <v>181.8693987986087</v>
       </c>
       <c r="M20" t="n">
-        <v>196.7274093259334</v>
+        <v>234.3540793966201</v>
       </c>
       <c r="N20" t="n">
-        <v>204.5710769848729</v>
+        <v>242.8065859147757</v>
       </c>
       <c r="O20" t="n">
-        <v>179.7007061880262</v>
+        <v>215.8054130391502</v>
       </c>
       <c r="P20" t="n">
-        <v>118.5208993915799</v>
+        <v>149.3354313770993</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.34491952247399</v>
+        <v>63.48534974092658</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.942985535317206</v>
       </c>
       <c r="K21" t="n">
-        <v>72.2970089888766</v>
+        <v>90.81093554123643</v>
       </c>
       <c r="L21" t="n">
-        <v>144.0026962018728</v>
+        <v>168.8969552119652</v>
       </c>
       <c r="M21" t="n">
-        <v>187.5967463924048</v>
+        <v>216.6471724708422</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1160608414544</v>
+        <v>236.9353652559472</v>
       </c>
       <c r="O21" t="n">
-        <v>167.0264946886093</v>
+        <v>194.3053325538853</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5251375628094</v>
+        <v>136.4188098945215</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.13359081394341</v>
+        <v>40.7689309660438</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>8.908950212702877</v>
       </c>
       <c r="L22" t="n">
-        <v>27.31767538854896</v>
+        <v>41.60826549493382</v>
       </c>
       <c r="M22" t="n">
-        <v>32.09385344032088</v>
+        <v>47.16127701891901</v>
       </c>
       <c r="N22" t="n">
-        <v>39.26762819329258</v>
+        <v>53.97678211653925</v>
       </c>
       <c r="O22" t="n">
-        <v>15.75173865234291</v>
+        <v>29.33802304601244</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.849230718505083</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>110.2410322142395</v>
       </c>
       <c r="K44" t="n">
-        <v>216.4737587808904</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L44" t="n">
         <v>305.8293466140554</v>
